--- a/Teams/Manchester City_stats.xlsx
+++ b/Teams/Manchester City_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24-242</t>
+          <t>24-243</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23-056</t>
+          <t>23-057</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-222</t>
+          <t>30-223</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29-244</t>
+          <t>29-245</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-215</t>
+          <t>31-216</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20-119</t>
+          <t>20-120</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-318</t>
+          <t>30-319</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20-344</t>
+          <t>20-345</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-296</t>
+          <t>24-297</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-147</t>
+          <t>34-148</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-310</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-298</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-265</t>
+          <t>33-266</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26-205</t>
+          <t>26-206</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-134</t>
+          <t>32-135</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-296</t>
+          <t>34-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-191</t>
+          <t>29-192</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-041</t>
+          <t>26-042</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-076</t>
+          <t>23-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19-136</t>
+          <t>19-137</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22-153</t>
+          <t>22-154</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-146</t>
+          <t>20-147</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-364</t>
+          <t>20-000</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7866,14 +7866,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 4_level_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -8117,7 +8113,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24-242</t>
+          <t>24-243</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -8234,7 +8230,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23-056</t>
+          <t>23-057</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -8351,7 +8347,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-222</t>
+          <t>30-223</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -8468,7 +8464,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29-244</t>
+          <t>29-245</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -8585,7 +8581,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-215</t>
+          <t>31-216</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -8702,7 +8698,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20-119</t>
+          <t>20-120</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -8819,7 +8815,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-318</t>
+          <t>30-319</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8936,7 +8932,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20-344</t>
+          <t>20-345</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -9053,7 +9049,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-296</t>
+          <t>24-297</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -9170,7 +9166,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-147</t>
+          <t>34-148</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -9287,7 +9283,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-310</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -9404,7 +9400,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-298</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -9521,7 +9517,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-265</t>
+          <t>33-266</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -9638,7 +9634,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26-205</t>
+          <t>26-206</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -9755,7 +9751,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-134</t>
+          <t>32-135</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -9872,7 +9868,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-296</t>
+          <t>34-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -9989,7 +9985,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -10106,7 +10102,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-191</t>
+          <t>29-192</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -10223,7 +10219,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -10340,7 +10336,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -10457,7 +10453,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-041</t>
+          <t>26-042</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -10574,7 +10570,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-076</t>
+          <t>23-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -10691,7 +10687,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19-136</t>
+          <t>19-137</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -10808,7 +10804,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -10925,7 +10921,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22-153</t>
+          <t>22-154</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -11042,7 +11038,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-146</t>
+          <t>20-147</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -11159,7 +11155,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-364</t>
+          <t>20-000</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -11276,7 +11272,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-205</t>
+          <t>19-206</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -11339,7 +11335,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-269</t>
+          <t>17-270</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -11402,7 +11398,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>39-198</t>
+          <t>39-199</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -11465,7 +11461,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>23-312</t>
+          <t>23-313</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -11528,7 +11524,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>19-067</t>
+          <t>19-068</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -11591,7 +11587,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>22-084</t>
+          <t>22-085</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -11654,7 +11650,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>19-180</t>
+          <t>19-181</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -11909,9 +11905,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12129,7 +12125,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24-242</t>
+          <t>24-243</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -12213,7 +12209,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23-056</t>
+          <t>23-057</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -12297,7 +12293,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-222</t>
+          <t>30-223</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -12381,7 +12377,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29-244</t>
+          <t>29-245</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -12465,7 +12461,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-215</t>
+          <t>31-216</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -12539,7 +12535,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20-119</t>
+          <t>20-120</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -12623,7 +12619,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-318</t>
+          <t>30-319</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -12707,7 +12703,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20-344</t>
+          <t>20-345</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -12791,7 +12787,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-296</t>
+          <t>24-297</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12875,7 +12871,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-147</t>
+          <t>34-148</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12959,7 +12955,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-310</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -13043,7 +13039,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-298</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -13127,7 +13123,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-265</t>
+          <t>33-266</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -13211,7 +13207,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26-205</t>
+          <t>26-206</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -13295,7 +13291,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-134</t>
+          <t>32-135</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -13369,7 +13365,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-296</t>
+          <t>34-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -13453,7 +13449,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -13535,7 +13531,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-191</t>
+          <t>29-192</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -13619,7 +13615,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -13703,7 +13699,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -13785,7 +13781,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-041</t>
+          <t>26-042</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13869,7 +13865,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-076</t>
+          <t>23-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13951,7 +13947,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19-136</t>
+          <t>19-137</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -14025,7 +14021,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -14099,7 +14095,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22-153</t>
+          <t>22-154</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -14183,7 +14179,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-146</t>
+          <t>20-147</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -14265,7 +14261,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-364</t>
+          <t>20-000</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -14766,7 +14762,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24-242</t>
+          <t>24-243</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -14868,7 +14864,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23-056</t>
+          <t>23-057</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -14970,7 +14966,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-222</t>
+          <t>30-223</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -15072,7 +15068,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29-244</t>
+          <t>29-245</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -15174,7 +15170,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-215</t>
+          <t>31-216</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -15276,7 +15272,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20-119</t>
+          <t>20-120</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -15378,7 +15374,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-318</t>
+          <t>30-319</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -15480,7 +15476,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20-344</t>
+          <t>20-345</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -15582,7 +15578,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-296</t>
+          <t>24-297</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -15684,7 +15680,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-147</t>
+          <t>34-148</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -15786,7 +15782,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-310</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -15888,7 +15884,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-298</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -15990,7 +15986,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-265</t>
+          <t>33-266</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -16092,7 +16088,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26-205</t>
+          <t>26-206</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -16194,7 +16190,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-134</t>
+          <t>32-135</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -16296,7 +16292,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-296</t>
+          <t>34-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -16398,7 +16394,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -16500,7 +16496,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-191</t>
+          <t>29-192</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -16602,7 +16598,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -16704,7 +16700,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -16806,7 +16802,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-041</t>
+          <t>26-042</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -16908,7 +16904,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-076</t>
+          <t>23-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -17010,7 +17006,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19-136</t>
+          <t>19-137</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -17112,7 +17108,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -17214,7 +17210,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22-153</t>
+          <t>22-154</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -17316,7 +17312,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-146</t>
+          <t>20-147</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -17416,7 +17412,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-364</t>
+          <t>20-000</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -17894,7 +17890,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24-242</t>
+          <t>24-243</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -17972,7 +17968,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23-056</t>
+          <t>23-057</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -18050,7 +18046,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-222</t>
+          <t>30-223</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -18128,7 +18124,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29-244</t>
+          <t>29-245</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -18206,7 +18202,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-215</t>
+          <t>31-216</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -18284,7 +18280,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20-119</t>
+          <t>20-120</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -18362,7 +18358,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-318</t>
+          <t>30-319</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -18440,7 +18436,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20-344</t>
+          <t>20-345</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -18518,7 +18514,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-296</t>
+          <t>24-297</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -18596,7 +18592,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-147</t>
+          <t>34-148</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -18674,7 +18670,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-310</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -18752,7 +18748,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-298</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -18830,7 +18826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-265</t>
+          <t>33-266</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -18908,7 +18904,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26-205</t>
+          <t>26-206</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -18986,7 +18982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-134</t>
+          <t>32-135</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -19064,7 +19060,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-296</t>
+          <t>34-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -19142,7 +19138,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -19220,7 +19216,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-191</t>
+          <t>29-192</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -19298,7 +19294,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -19376,7 +19372,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -19454,7 +19450,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-041</t>
+          <t>26-042</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -19532,7 +19528,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-076</t>
+          <t>23-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -19610,7 +19606,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19-136</t>
+          <t>19-137</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -19688,7 +19684,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -19766,7 +19762,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22-153</t>
+          <t>22-154</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -19844,7 +19840,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-146</t>
+          <t>20-147</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -19922,7 +19918,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-364</t>
+          <t>20-000</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -20334,7 +20330,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24-242</t>
+          <t>24-243</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -20415,7 +20411,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23-056</t>
+          <t>23-057</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -20496,7 +20492,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-222</t>
+          <t>30-223</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -20577,7 +20573,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29-244</t>
+          <t>29-245</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -20658,7 +20654,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-215</t>
+          <t>31-216</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -20739,7 +20735,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20-119</t>
+          <t>20-120</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -20820,7 +20816,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-318</t>
+          <t>30-319</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -20901,7 +20897,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20-344</t>
+          <t>20-345</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -20982,7 +20978,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-296</t>
+          <t>24-297</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -21063,7 +21059,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-147</t>
+          <t>34-148</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -21144,7 +21140,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-310</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -21225,7 +21221,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-298</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -21306,7 +21302,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-265</t>
+          <t>33-266</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -21387,7 +21383,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26-205</t>
+          <t>26-206</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -21468,7 +21464,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-134</t>
+          <t>32-135</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -21549,7 +21545,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-296</t>
+          <t>34-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -21630,7 +21626,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -21711,7 +21707,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-191</t>
+          <t>29-192</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -21792,7 +21788,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -21873,7 +21869,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -21954,7 +21950,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-041</t>
+          <t>26-042</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -22035,7 +22031,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-076</t>
+          <t>23-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -22116,7 +22112,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19-136</t>
+          <t>19-137</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -22197,7 +22193,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -22278,7 +22274,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22-153</t>
+          <t>22-154</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -22359,7 +22355,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-146</t>
+          <t>20-147</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -22440,7 +22436,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-364</t>
+          <t>20-000</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -22874,7 +22870,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24-242</t>
+          <t>24-243</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -22955,7 +22951,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23-056</t>
+          <t>23-057</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -23036,7 +23032,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-222</t>
+          <t>30-223</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -23117,7 +23113,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29-244</t>
+          <t>29-245</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -23198,7 +23194,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-215</t>
+          <t>31-216</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -23279,7 +23275,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20-119</t>
+          <t>20-120</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -23360,7 +23356,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-318</t>
+          <t>30-319</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -23441,7 +23437,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20-344</t>
+          <t>20-345</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -23522,7 +23518,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-296</t>
+          <t>24-297</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -23603,7 +23599,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-147</t>
+          <t>34-148</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -23684,7 +23680,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-310</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -23765,7 +23761,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-298</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -23846,7 +23842,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-265</t>
+          <t>33-266</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -23927,7 +23923,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26-205</t>
+          <t>26-206</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -24008,7 +24004,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-134</t>
+          <t>32-135</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -24089,7 +24085,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-296</t>
+          <t>34-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -24170,7 +24166,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -24251,7 +24247,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-191</t>
+          <t>29-192</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -24332,7 +24328,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -24413,7 +24409,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -24494,7 +24490,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-041</t>
+          <t>26-042</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -24575,7 +24571,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-076</t>
+          <t>23-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -24656,7 +24652,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19-136</t>
+          <t>19-137</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -24737,7 +24733,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -24816,7 +24812,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22-153</t>
+          <t>22-154</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -24897,7 +24893,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-146</t>
+          <t>20-147</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -24976,7 +24972,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-364</t>
+          <t>20-000</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -25431,7 +25427,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24-242</t>
+          <t>24-243</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -25530,7 +25526,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23-056</t>
+          <t>23-057</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -25629,7 +25625,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-222</t>
+          <t>30-223</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -25728,7 +25724,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29-244</t>
+          <t>29-245</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -25827,7 +25823,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-215</t>
+          <t>31-216</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -25922,7 +25918,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20-119</t>
+          <t>20-120</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -26021,7 +26017,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-318</t>
+          <t>30-319</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -26120,7 +26116,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20-344</t>
+          <t>20-345</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -26219,7 +26215,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-296</t>
+          <t>24-297</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -26318,7 +26314,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-147</t>
+          <t>34-148</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -26417,7 +26413,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-310</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -26516,7 +26512,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-298</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -26615,7 +26611,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-265</t>
+          <t>33-266</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -26714,7 +26710,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26-205</t>
+          <t>26-206</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -26813,7 +26809,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-134</t>
+          <t>32-135</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -26908,7 +26904,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-296</t>
+          <t>34-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -27007,7 +27003,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -27106,7 +27102,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-191</t>
+          <t>29-192</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -27205,7 +27201,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -27304,7 +27300,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -27403,7 +27399,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-041</t>
+          <t>26-042</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -27502,7 +27498,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-076</t>
+          <t>23-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -27601,7 +27597,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19-136</t>
+          <t>19-137</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -27700,7 +27696,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -27799,7 +27795,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22-153</t>
+          <t>22-154</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -27898,7 +27894,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-146</t>
+          <t>20-147</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -27993,7 +27989,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-364</t>
+          <t>20-000</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -28294,14 +28290,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 4_level_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -28545,7 +28537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24-242</t>
+          <t>24-243</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -28662,7 +28654,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23-056</t>
+          <t>23-057</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -28779,7 +28771,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-222</t>
+          <t>30-223</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -28896,7 +28888,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29-244</t>
+          <t>29-245</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -29013,7 +29005,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31-215</t>
+          <t>31-216</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -29130,7 +29122,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20-119</t>
+          <t>20-120</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -29247,7 +29239,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30-318</t>
+          <t>30-319</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -29364,7 +29356,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20-344</t>
+          <t>20-345</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -29481,7 +29473,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-296</t>
+          <t>24-297</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -29598,7 +29590,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-147</t>
+          <t>34-148</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -29715,7 +29707,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>27-310</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -29832,7 +29824,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-298</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -29949,7 +29941,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-265</t>
+          <t>33-266</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -30066,7 +30058,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26-205</t>
+          <t>26-206</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -30183,7 +30175,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-134</t>
+          <t>32-135</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -30300,7 +30292,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34-296</t>
+          <t>34-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -30417,7 +30409,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>30-030</t>
+          <t>30-031</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -30534,7 +30526,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-191</t>
+          <t>29-192</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -30651,7 +30643,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -30768,7 +30760,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -30885,7 +30877,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-041</t>
+          <t>26-042</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -31002,7 +30994,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-076</t>
+          <t>23-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -31119,7 +31111,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19-136</t>
+          <t>19-137</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -31236,7 +31228,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -31353,7 +31345,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22-153</t>
+          <t>22-154</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -31470,7 +31462,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20-146</t>
+          <t>20-147</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -31587,7 +31579,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-364</t>
+          <t>20-000</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -31704,7 +31696,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-205</t>
+          <t>19-206</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -31767,7 +31759,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17-269</t>
+          <t>17-270</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -31830,7 +31822,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>39-198</t>
+          <t>39-199</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -31893,7 +31885,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>23-312</t>
+          <t>23-313</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -31956,7 +31948,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>19-067</t>
+          <t>19-068</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -32019,7 +32011,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>22-084</t>
+          <t>22-085</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -32082,7 +32074,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>19-180</t>
+          <t>19-181</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -32337,9 +32329,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Teams/Manchester City_stats.xlsx
+++ b/Teams/Manchester City_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4204,7 +4204,9 @@
       <c r="N46" t="n">
         <v>60</v>
       </c>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>52471</v>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Rúben Dias</t>
@@ -4527,12 +4529,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4547,7 +4549,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4890,7 +4892,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24-246</t>
+          <t>24-249</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4961,7 +4963,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23-060</t>
+          <t>23-063</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -5032,7 +5034,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-226</t>
+          <t>30-229</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -5103,7 +5105,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29-248</t>
+          <t>29-251</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -5174,7 +5176,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-219</t>
+          <t>31-222</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -5245,7 +5247,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20-123</t>
+          <t>20-126</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -5316,7 +5318,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-322</t>
+          <t>30-325</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -5387,7 +5389,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20-348</t>
+          <t>20-351</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -5458,7 +5460,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-300</t>
+          <t>24-303</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -5529,7 +5531,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-151</t>
+          <t>34-154</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -5600,7 +5602,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-317</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -5671,7 +5673,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22-301</t>
+          <t>22-304</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -5742,7 +5744,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-269</t>
+          <t>33-272</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -5813,7 +5815,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26-209</t>
+          <t>26-212</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -5884,7 +5886,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-138</t>
+          <t>32-141</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5953,7 +5955,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-300</t>
+          <t>34-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -6024,7 +6026,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30-034</t>
+          <t>30-037</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -6095,7 +6097,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-195</t>
+          <t>29-198</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -6166,7 +6168,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -6237,7 +6239,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -6308,7 +6310,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-045</t>
+          <t>26-048</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -6379,7 +6381,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-080</t>
+          <t>23-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -6450,7 +6452,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19-140</t>
+          <t>19-143</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -6521,7 +6523,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -6592,7 +6594,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22-157</t>
+          <t>22-160</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -6663,7 +6665,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-150</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -6734,7 +6736,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-003</t>
+          <t>20-006</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -6866,7 +6868,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -7179,7 +7181,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24-246</t>
+          <t>24-249</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -7286,7 +7288,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23-060</t>
+          <t>23-063</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -7393,7 +7395,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-226</t>
+          <t>30-229</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -7500,7 +7502,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29-248</t>
+          <t>29-251</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -7607,7 +7609,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-219</t>
+          <t>31-222</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -7714,7 +7716,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20-123</t>
+          <t>20-126</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -7821,7 +7823,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-322</t>
+          <t>30-325</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7928,7 +7930,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20-348</t>
+          <t>20-351</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -8035,7 +8037,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-300</t>
+          <t>24-303</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -8142,7 +8144,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-151</t>
+          <t>34-154</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -8249,7 +8251,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-317</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -8356,7 +8358,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22-301</t>
+          <t>22-304</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -8463,7 +8465,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-269</t>
+          <t>33-272</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -8570,7 +8572,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26-209</t>
+          <t>26-212</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -8677,7 +8679,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-138</t>
+          <t>32-141</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -8784,7 +8786,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-300</t>
+          <t>34-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -8891,7 +8893,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30-034</t>
+          <t>30-037</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8998,7 +9000,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-195</t>
+          <t>29-198</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -9105,7 +9107,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -9212,7 +9214,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -9319,7 +9321,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-045</t>
+          <t>26-048</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -9426,7 +9428,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-080</t>
+          <t>23-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -9533,7 +9535,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19-140</t>
+          <t>19-143</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -9640,7 +9642,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -9747,7 +9749,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22-157</t>
+          <t>22-160</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -9854,7 +9856,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-150</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9961,7 +9963,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-003</t>
+          <t>20-006</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -10068,7 +10070,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-209</t>
+          <t>19-212</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -10121,7 +10123,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-273</t>
+          <t>17-276</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -10174,7 +10176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>39-202</t>
+          <t>39-205</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -10227,7 +10229,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>23-316</t>
+          <t>23-319</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -10280,7 +10282,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19-071</t>
+          <t>19-074</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -10333,7 +10335,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22-088</t>
+          <t>22-091</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -10386,7 +10388,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>19-184</t>
+          <t>19-187</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -10538,7 +10540,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -10812,7 +10814,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24-246</t>
+          <t>24-249</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10886,7 +10888,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23-060</t>
+          <t>23-063</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10960,7 +10962,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-226</t>
+          <t>30-229</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11034,7 +11036,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29-248</t>
+          <t>29-251</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11108,7 +11110,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-219</t>
+          <t>31-222</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11172,7 +11174,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20-123</t>
+          <t>20-126</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11246,7 +11248,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-322</t>
+          <t>30-325</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -11320,7 +11322,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20-348</t>
+          <t>20-351</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -11394,7 +11396,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-300</t>
+          <t>24-303</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -11468,7 +11470,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-151</t>
+          <t>34-154</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11542,7 +11544,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-317</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -11616,7 +11618,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22-301</t>
+          <t>22-304</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11690,7 +11692,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-269</t>
+          <t>33-272</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11764,7 +11766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26-209</t>
+          <t>26-212</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11838,7 +11840,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-138</t>
+          <t>32-141</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11902,7 +11904,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-300</t>
+          <t>34-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11976,7 +11978,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30-034</t>
+          <t>30-037</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12048,7 +12050,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-195</t>
+          <t>29-198</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12122,7 +12124,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12196,7 +12198,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12268,7 +12270,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-045</t>
+          <t>26-048</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -12342,7 +12344,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-080</t>
+          <t>23-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -12414,7 +12416,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19-140</t>
+          <t>19-143</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -12478,7 +12480,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -12542,7 +12544,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22-157</t>
+          <t>22-160</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -12616,7 +12618,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-150</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -12688,7 +12690,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-003</t>
+          <t>20-006</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -12826,7 +12828,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -13112,7 +13114,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24-246</t>
+          <t>24-249</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13204,7 +13206,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23-060</t>
+          <t>23-063</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13296,7 +13298,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-226</t>
+          <t>30-229</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13388,7 +13390,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29-248</t>
+          <t>29-251</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13480,7 +13482,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-219</t>
+          <t>31-222</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13572,7 +13574,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20-123</t>
+          <t>20-126</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13664,7 +13666,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-322</t>
+          <t>30-325</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13756,7 +13758,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20-348</t>
+          <t>20-351</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13848,7 +13850,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-300</t>
+          <t>24-303</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13940,7 +13942,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-151</t>
+          <t>34-154</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14032,7 +14034,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-317</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14124,7 +14126,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22-301</t>
+          <t>22-304</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14216,7 +14218,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-269</t>
+          <t>33-272</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14308,7 +14310,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26-209</t>
+          <t>26-212</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14400,7 +14402,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-138</t>
+          <t>32-141</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14492,7 +14494,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-300</t>
+          <t>34-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14584,7 +14586,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30-034</t>
+          <t>30-037</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14676,7 +14678,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-195</t>
+          <t>29-198</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14768,7 +14770,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14860,7 +14862,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14952,7 +14954,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-045</t>
+          <t>26-048</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -15044,7 +15046,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-080</t>
+          <t>23-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -15136,7 +15138,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19-140</t>
+          <t>19-143</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -15228,7 +15230,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -15320,7 +15322,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22-157</t>
+          <t>22-160</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -15412,7 +15414,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-150</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -15502,7 +15504,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-003</t>
+          <t>20-006</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -15676,7 +15678,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -15927,7 +15929,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24-246</t>
+          <t>24-249</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15995,7 +15997,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23-060</t>
+          <t>23-063</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16063,7 +16065,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-226</t>
+          <t>30-229</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16131,7 +16133,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29-248</t>
+          <t>29-251</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16199,7 +16201,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-219</t>
+          <t>31-222</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16267,7 +16269,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20-123</t>
+          <t>20-126</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16335,7 +16337,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-322</t>
+          <t>30-325</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16403,7 +16405,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20-348</t>
+          <t>20-351</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16471,7 +16473,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-300</t>
+          <t>24-303</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16539,7 +16541,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-151</t>
+          <t>34-154</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16607,7 +16609,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-317</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16675,7 +16677,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22-301</t>
+          <t>22-304</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16743,7 +16745,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-269</t>
+          <t>33-272</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16811,7 +16813,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26-209</t>
+          <t>26-212</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16879,7 +16881,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-138</t>
+          <t>32-141</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16947,7 +16949,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-300</t>
+          <t>34-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17015,7 +17017,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30-034</t>
+          <t>30-037</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17083,7 +17085,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-195</t>
+          <t>29-198</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17151,7 +17153,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17219,7 +17221,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17287,7 +17289,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-045</t>
+          <t>26-048</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -17355,7 +17357,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-080</t>
+          <t>23-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -17423,7 +17425,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19-140</t>
+          <t>19-143</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -17491,7 +17493,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -17559,7 +17561,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22-157</t>
+          <t>22-160</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -17627,7 +17629,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-150</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -17695,7 +17697,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-003</t>
+          <t>20-006</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -17823,7 +17825,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -18058,7 +18060,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24-246</t>
+          <t>24-249</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18129,7 +18131,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23-060</t>
+          <t>23-063</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18200,7 +18202,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-226</t>
+          <t>30-229</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -18271,7 +18273,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29-248</t>
+          <t>29-251</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -18342,7 +18344,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-219</t>
+          <t>31-222</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -18413,7 +18415,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20-123</t>
+          <t>20-126</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -18484,7 +18486,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-322</t>
+          <t>30-325</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18555,7 +18557,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20-348</t>
+          <t>20-351</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -18626,7 +18628,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-300</t>
+          <t>24-303</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -18697,7 +18699,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-151</t>
+          <t>34-154</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18768,7 +18770,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-317</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18839,7 +18841,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22-301</t>
+          <t>22-304</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18910,7 +18912,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-269</t>
+          <t>33-272</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18981,7 +18983,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26-209</t>
+          <t>26-212</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -19052,7 +19054,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-138</t>
+          <t>32-141</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -19123,7 +19125,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-300</t>
+          <t>34-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -19194,7 +19196,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30-034</t>
+          <t>30-037</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -19265,7 +19267,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-195</t>
+          <t>29-198</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -19336,7 +19338,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -19407,7 +19409,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -19478,7 +19480,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-045</t>
+          <t>26-048</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -19549,7 +19551,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-080</t>
+          <t>23-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -19620,7 +19622,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19-140</t>
+          <t>19-143</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -19691,7 +19693,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -19762,7 +19764,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22-157</t>
+          <t>22-160</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -19833,7 +19835,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-150</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -19904,7 +19906,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-003</t>
+          <t>20-006</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -20038,7 +20040,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -20273,7 +20275,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24-246</t>
+          <t>24-249</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -20344,7 +20346,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23-060</t>
+          <t>23-063</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -20415,7 +20417,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-226</t>
+          <t>30-229</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -20486,7 +20488,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29-248</t>
+          <t>29-251</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -20557,7 +20559,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-219</t>
+          <t>31-222</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -20628,7 +20630,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20-123</t>
+          <t>20-126</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -20699,7 +20701,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-322</t>
+          <t>30-325</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -20770,7 +20772,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20-348</t>
+          <t>20-351</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -20841,7 +20843,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-300</t>
+          <t>24-303</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -20912,7 +20914,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-151</t>
+          <t>34-154</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -20983,7 +20985,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-317</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -21054,7 +21056,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22-301</t>
+          <t>22-304</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -21125,7 +21127,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-269</t>
+          <t>33-272</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -21196,7 +21198,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26-209</t>
+          <t>26-212</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -21267,7 +21269,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-138</t>
+          <t>32-141</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -21338,7 +21340,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-300</t>
+          <t>34-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -21409,7 +21411,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30-034</t>
+          <t>30-037</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -21480,7 +21482,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-195</t>
+          <t>29-198</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -21551,7 +21553,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -21622,7 +21624,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -21693,7 +21695,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-045</t>
+          <t>26-048</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -21764,7 +21766,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-080</t>
+          <t>23-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -21835,7 +21837,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19-140</t>
+          <t>19-143</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -21906,7 +21908,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -21975,7 +21977,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22-157</t>
+          <t>22-160</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -22046,7 +22048,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-150</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -22115,7 +22117,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-003</t>
+          <t>20-006</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -22247,7 +22249,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -22521,7 +22523,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24-246</t>
+          <t>24-249</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -22610,7 +22612,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23-060</t>
+          <t>23-063</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -22699,7 +22701,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-226</t>
+          <t>30-229</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -22788,7 +22790,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29-248</t>
+          <t>29-251</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -22877,7 +22879,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-219</t>
+          <t>31-222</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -22962,7 +22964,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20-123</t>
+          <t>20-126</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -23051,7 +23053,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-322</t>
+          <t>30-325</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -23140,7 +23142,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20-348</t>
+          <t>20-351</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -23229,7 +23231,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-300</t>
+          <t>24-303</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -23318,7 +23320,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-151</t>
+          <t>34-154</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -23407,7 +23409,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-317</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -23496,7 +23498,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22-301</t>
+          <t>22-304</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -23585,7 +23587,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-269</t>
+          <t>33-272</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -23674,7 +23676,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26-209</t>
+          <t>26-212</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -23763,7 +23765,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-138</t>
+          <t>32-141</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -23848,7 +23850,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-300</t>
+          <t>34-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -23937,7 +23939,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30-034</t>
+          <t>30-037</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -24026,7 +24028,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-195</t>
+          <t>29-198</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -24115,7 +24117,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -24204,7 +24206,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -24293,7 +24295,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-045</t>
+          <t>26-048</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -24382,7 +24384,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-080</t>
+          <t>23-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -24471,7 +24473,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19-140</t>
+          <t>19-143</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -24560,7 +24562,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -24649,7 +24651,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22-157</t>
+          <t>22-160</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -24738,7 +24740,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-150</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -24823,7 +24825,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-003</t>
+          <t>20-006</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -24993,7 +24995,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -25326,7 +25328,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24-246</t>
+          <t>24-249</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -25433,7 +25435,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23-060</t>
+          <t>23-063</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -25540,7 +25542,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-226</t>
+          <t>30-229</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -25647,7 +25649,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29-248</t>
+          <t>29-251</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -25754,7 +25756,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-219</t>
+          <t>31-222</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -25861,7 +25863,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20-123</t>
+          <t>20-126</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -25968,7 +25970,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30-322</t>
+          <t>30-325</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -26075,7 +26077,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20-348</t>
+          <t>20-351</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -26182,7 +26184,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-300</t>
+          <t>24-303</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -26289,7 +26291,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-151</t>
+          <t>34-154</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -26396,7 +26398,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27-314</t>
+          <t>27-317</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -26503,7 +26505,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22-301</t>
+          <t>22-304</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -26610,7 +26612,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-269</t>
+          <t>33-272</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -26717,7 +26719,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26-209</t>
+          <t>26-212</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -26824,7 +26826,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-138</t>
+          <t>32-141</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -26931,7 +26933,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34-300</t>
+          <t>34-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -27038,7 +27040,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30-034</t>
+          <t>30-037</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -27145,7 +27147,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-195</t>
+          <t>29-198</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -27252,7 +27254,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -27359,7 +27361,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -27466,7 +27468,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-045</t>
+          <t>26-048</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -27573,7 +27575,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-080</t>
+          <t>23-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -27680,7 +27682,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19-140</t>
+          <t>19-143</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -27787,7 +27789,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -27894,7 +27896,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22-157</t>
+          <t>22-160</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -28001,7 +28003,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20-150</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -28108,7 +28110,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20-003</t>
+          <t>20-006</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -28215,7 +28217,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-209</t>
+          <t>19-212</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -28268,7 +28270,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17-273</t>
+          <t>17-276</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -28321,7 +28323,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>39-202</t>
+          <t>39-205</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -28374,7 +28376,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>23-316</t>
+          <t>23-319</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -28427,7 +28429,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19-071</t>
+          <t>19-074</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -28480,7 +28482,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22-088</t>
+          <t>22-091</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -28533,7 +28535,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>19-184</t>
+          <t>19-187</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -28685,7 +28687,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="E39" t="n">
